--- a/doc/wifi-app15.3.31.xlsx
+++ b/doc/wifi-app15.3.31.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="5260" yWindow="2320" windowWidth="30160" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2399,8 +2404,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2523,38 +2528,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -2562,27 +2567,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2590,29 +2595,29 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -2799,7 +2804,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3090,20 +3095,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="13.125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="42.625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" style="33" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="27.75" customWidth="1"/>
-    <col min="8" max="9" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" customWidth="1"/>
+    <col min="8" max="9" width="16.6640625" customWidth="1"/>
     <col min="10" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3137,7 +3142,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75">
+    <row r="6" spans="1:10" ht="15">
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
@@ -3598,7 +3603,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="15.75">
+    <row r="37" spans="2:11" ht="15">
       <c r="B37" s="9" t="s">
         <v>0</v>
       </c>
@@ -4208,7 +4213,7 @@
       </c>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="2:11" ht="15.75">
+    <row r="61" spans="2:11" ht="15">
       <c r="B61" s="1"/>
     </row>
   </sheetData>
@@ -4225,34 +4230,49 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>